--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W20_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type1/pd_results_W20_H100_B16.xlsx
@@ -502,25 +502,23 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5479876160990712</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.2</v>
-      </c>
+        <v>0.551829268292683</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.9779005524861878</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.006802721088435374</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5426829268292683</v>
+        <v>0.551829268292683</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7023809523809523</v>
+        <v>0.7111984282907663</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4451219512195122</v>
+        <v>0.4878048780487805</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1134474036189151</v>
+        <v>0.1244193997461195</v>
       </c>
       <c r="J2" t="n">
-        <v>1362.864907085641</v>
+        <v>1649.102110492805</v>
       </c>
       <c r="K2" t="n">
-        <v>2139977.344562476</v>
+        <v>3551024.264109135</v>
       </c>
       <c r="L2" t="n">
-        <v>1462.866140343154</v>
+        <v>1884.41616001061</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5963128503779673</v>
+        <v>0.330131757207936</v>
       </c>
     </row>
   </sheetData>
